--- a/0-Admin/DebateParticipants.xlsx
+++ b/0-Admin/DebateParticipants.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8760" yWindow="-21220" windowWidth="27960" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="760" yWindow="460" windowWidth="19720" windowHeight="14900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,14 +27,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>mra2165@columbia.edu</t>
-  </si>
-  <si>
     <t>KCramer21@gsb.columbia.edu</t>
   </si>
   <si>
@@ -50,84 +47,24 @@
     <t>vinayak.iyer@columbia.edu</t>
   </si>
   <si>
-    <t>james.jiang@columbia.edu</t>
-  </si>
-  <si>
     <t>psk2138@columbia.edu</t>
   </si>
   <si>
     <t>s.kong@columbia.edu</t>
   </si>
   <si>
-    <t>lfl2121@columbia.edu</t>
-  </si>
-  <si>
-    <t>christine.ohenewah@columbia.edu</t>
-  </si>
-  <si>
     <t>lp2646@columbia.edu</t>
   </si>
   <si>
     <t>dr2879@columbia.edu</t>
   </si>
   <si>
-    <t>arpita.saluja@columbia.edu</t>
-  </si>
-  <si>
     <t>ms5322@columbia.edu</t>
   </si>
   <si>
     <t>js4759@columbia.edu</t>
   </si>
   <si>
-    <t xml:space="preserve">Al-Chanati Motaz                </t>
-  </si>
-  <si>
-    <t>Cramer Kim Fe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cruz Micah                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guillouet Louise                </t>
-  </si>
-  <si>
-    <t>Husted Lucas Francisco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iyer Vinayak                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jiang James                </t>
-  </si>
-  <si>
-    <t>Koh Paul Sungwook</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kong Sang Hoon                </t>
-  </si>
-  <si>
-    <t>Lagos Lorenzo Felipe</t>
-  </si>
-  <si>
-    <t>Ohenewah Christine Efua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pessina Lorenzo                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Romero Fonseca Dario Alberto                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saluja Arpita                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shi Mengdi                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shin Joo-Hyung                </t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
@@ -138,16 +75,75 @@
   </si>
   <si>
     <t>SpeakSpanish</t>
+  </si>
+  <si>
+    <t>Lorenzo Pessina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Louise Guillouet    </t>
+  </si>
+  <si>
+    <t>Maggie Shi</t>
+  </si>
+  <si>
+    <t>Sang Kong</t>
+  </si>
+  <si>
+    <t>Dario Romero</t>
+  </si>
+  <si>
+    <t>Kim Cramer</t>
+  </si>
+  <si>
+    <t>Sabrina Kuri</t>
+  </si>
+  <si>
+    <t>sak2248@columbia.edu</t>
+  </si>
+  <si>
+    <t>Micah Cruz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grace Shin          </t>
+  </si>
+  <si>
+    <t>Paul Koh</t>
+  </si>
+  <si>
+    <t>Ryota Sugiyama</t>
+  </si>
+  <si>
+    <t>rs3773@columbia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vinayak Iyer </t>
+  </si>
+  <si>
+    <t>Haaris Mateen</t>
+  </si>
+  <si>
+    <t>hm2692@columbia.edu</t>
+  </si>
+  <si>
+    <t>Lucas Husted</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -170,13 +166,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -452,7 +451,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -460,198 +459,223 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>33</v>
-      </c>
       <c r="C1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="C13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
         <v>27</v>
       </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="C14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
         <v>30</v>
       </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="C15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>35</v>
+      <c r="D15" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C13" r:id="rId1"/>
+    <hyperlink ref="C14" r:id="rId2"/>
+    <hyperlink ref="C15" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>